--- a/REGULAR/RE-ENCODE/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/RE-ENCODE/ALEGA, ESTELITA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA002FB-DFBA-4D00-A5E7-22BEE343D31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA447C9-4A0C-4674-AE68-2573E0CFA125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
   <si>
     <t>PERIOD</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>3/2,3/2023</t>
+  </si>
+  <si>
+    <t>4/3,4,20/2023</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1114,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1440,12 +1443,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G108:G109"/>
+      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,7 +1613,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.037999999999997</v>
+        <v>52.037999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3840,12 +3843,14 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B107" s="20"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C107" s="13"/>
-      <c r="D107" s="39"/>
+      <c r="D107" s="39">
+        <v>3</v>
+      </c>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
       <c r="G107" s="13" t="str">
@@ -3855,11 +3860,13 @@
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
+      <c r="K107" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3877,7 +3884,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3895,7 +3902,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3913,7 +3920,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3931,7 +3938,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3949,7 +3956,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3967,7 +3974,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3985,7 +3992,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4003,7 +4010,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4021,7 +4028,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4039,7 +4046,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4057,7 +4064,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4075,7 +4082,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4093,7 +4100,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4111,7 +4118,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4129,7 +4136,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4147,7 +4154,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4165,7 +4172,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4183,7 +4190,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4201,7 +4208,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4219,7 +4226,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4237,7 +4244,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4255,7 +4262,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4273,7 +4280,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4291,7 +4298,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4309,7 +4316,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4326,7 +4333,9 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="40"/>
+      <c r="A134" s="40">
+        <v>45839</v>
+      </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
       <c r="D134" s="39"/>
@@ -4406,20 +4415,36 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="41"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="43"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="43"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="15"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="41"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="43"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
